--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>身体所見に関するObservation（検査測定や観察事実）の制約プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2150,19 +2146,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AN1" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2173,10 +2169,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2187,28 +2183,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2258,13 +2254,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2293,10 +2289,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2307,25 +2303,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2376,19 +2372,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2411,10 +2407,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2425,28 +2421,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2496,19 +2492,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2531,10 +2527,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2545,7 +2541,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2557,16 +2553,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2592,43 +2588,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2651,21 +2647,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2677,16 +2673,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2736,31 +2732,31 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2771,14 +2767,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2797,16 +2793,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2856,7 +2852,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2880,7 +2876,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -2891,14 +2887,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2917,16 +2913,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2976,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2988,7 +2984,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3000,7 +2996,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -3011,14 +3007,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3031,25 +3027,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3098,7 +3094,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3110,7 +3106,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3122,7 +3118,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3133,10 +3129,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3156,20 +3152,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3218,7 +3214,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3230,22 +3226,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AL10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AN10" t="s" s="2">
+      <c r="AO10" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3253,14 +3249,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3276,20 +3272,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3338,7 +3334,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3350,19 +3346,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3373,14 +3369,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3396,19 +3392,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3458,7 +3454,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3470,19 +3466,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3493,10 +3489,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3504,34 +3500,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3556,58 +3552,58 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3615,10 +3611,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3626,7 +3622,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3641,19 +3637,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3678,27 +3674,27 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3710,7 +3706,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3722,10 +3718,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3733,23 +3729,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3761,19 +3757,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3798,11 +3794,11 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3820,7 +3816,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3832,7 +3828,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3844,10 +3840,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3855,10 +3851,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3869,7 +3865,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3881,13 +3877,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3938,31 +3934,31 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -3973,14 +3969,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3999,16 +3995,16 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4046,19 +4042,19 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4070,7 +4066,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -4082,7 +4078,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4093,10 +4089,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4116,22 +4112,22 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4180,7 +4176,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4192,7 +4188,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4201,10 +4197,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4215,10 +4211,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4229,7 +4225,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -4241,13 +4237,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4298,31 +4294,31 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4333,14 +4329,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4359,16 +4355,16 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4406,19 +4402,19 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4430,7 +4426,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4442,7 +4438,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4453,10 +4449,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4464,107 +4460,107 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4575,10 +4571,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4589,28 +4585,28 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4660,31 +4656,31 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4695,10 +4691,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4706,105 +4702,105 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF23" t="s" s="2">
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4815,10 +4811,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4829,29 +4825,29 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4900,31 +4896,31 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4935,10 +4931,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4949,31 +4945,31 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5022,31 +5018,31 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5057,10 +5053,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5071,31 +5067,31 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5144,31 +5140,31 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5179,45 +5175,45 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5242,67 +5238,67 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5313,7 +5309,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -5325,13 +5321,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5382,31 +5378,31 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5417,14 +5413,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5443,16 +5439,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5490,19 +5486,19 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC29" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC29" t="s" s="2">
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5514,7 +5510,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -5526,7 +5522,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5537,10 +5533,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5560,22 +5556,22 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5612,17 +5608,17 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5634,7 +5630,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5643,10 +5639,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5657,13 +5653,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>41</v>
@@ -5673,31 +5669,31 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5722,11 +5718,11 @@
         <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>41</v>
@@ -5744,7 +5740,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5756,7 +5752,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5765,10 +5761,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5779,10 +5775,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5793,7 +5789,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5805,13 +5801,13 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5862,31 +5858,31 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5897,14 +5893,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5923,16 +5919,16 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5970,19 +5966,19 @@
         <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AD33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5994,7 +5990,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -6006,7 +6002,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6017,10 +6013,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6028,41 +6024,41 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>41</v>
@@ -6104,31 +6100,31 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6139,10 +6135,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6153,28 +6149,28 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6224,31 +6220,31 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6259,10 +6255,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6270,39 +6266,39 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>41</v>
@@ -6344,31 +6340,31 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6379,10 +6375,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6393,29 +6389,29 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6425,7 +6421,7 @@
         <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>41</v>
@@ -6464,31 +6460,31 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6499,10 +6495,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6513,31 +6509,31 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6586,31 +6582,31 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6621,10 +6617,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6635,31 +6631,31 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6708,31 +6704,31 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6743,10 +6739,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6754,34 +6750,34 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K40" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6830,34 +6826,34 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>41</v>
@@ -6865,10 +6861,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6888,19 +6884,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6950,7 +6946,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6962,7 +6958,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6971,13 +6967,13 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>41</v>
@@ -6985,45 +6981,45 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7072,34 +7068,34 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>41</v>
@@ -7107,45 +7103,45 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7194,34 +7190,34 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>41</v>
@@ -7229,10 +7225,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7243,28 +7239,28 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7314,19 +7310,19 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7335,13 +7331,13 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>41</v>
@@ -7349,10 +7345,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7372,22 +7368,22 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7436,7 +7432,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7448,22 +7444,22 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>41</v>
@@ -7471,10 +7467,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7485,31 +7481,31 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7546,58 +7542,58 @@
         <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>41</v>
@@ -7607,31 +7603,31 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7656,11 +7652,11 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7678,45 +7674,45 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7727,7 +7723,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7739,19 +7735,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7776,55 +7772,55 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI48" t="s" s="2">
+      <c r="AJ48" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7835,14 +7831,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7861,19 +7857,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7898,14 +7894,14 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7934,33 +7930,33 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7983,19 +7979,19 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8044,7 +8040,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8056,7 +8052,7 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -8065,10 +8061,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8079,10 +8075,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8093,7 +8089,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -8105,16 +8101,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8140,67 +8136,67 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AA51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8211,7 +8207,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8223,19 +8219,19 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -8260,53 +8256,53 @@
         <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AA52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8317,10 +8313,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8331,7 +8327,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -8343,16 +8339,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8402,45 +8398,45 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>406</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8451,7 +8447,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -8463,16 +8459,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8522,45 +8518,45 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8583,19 +8579,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8644,7 +8640,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8656,19 +8652,19 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8679,10 +8675,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8693,7 +8689,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8705,13 +8701,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8762,31 +8758,31 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8797,14 +8793,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8823,16 +8819,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8882,7 +8878,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8894,7 +8890,7 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -8906,7 +8902,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -8917,14 +8913,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8937,25 +8933,25 @@
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9004,7 +9000,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9016,7 +9012,7 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -9028,7 +9024,7 @@
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9039,10 +9035,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9053,7 +9049,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9065,13 +9061,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9122,31 +9118,31 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9157,10 +9153,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9171,7 +9167,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9183,13 +9179,13 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9240,31 +9236,31 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9275,10 +9271,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9289,7 +9285,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9301,19 +9297,19 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9338,55 +9334,55 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z61" t="s" s="2">
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AN61" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9397,10 +9393,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9423,19 +9419,19 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9460,14 +9456,14 @@
         <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
       </c>
@@ -9484,7 +9480,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9496,19 +9492,19 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9519,10 +9515,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9533,7 +9529,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9545,17 +9541,17 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9604,19 +9600,19 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9628,7 +9624,7 @@
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9639,10 +9635,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9653,7 +9649,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9665,13 +9661,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9722,19 +9718,19 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
@@ -9743,10 +9739,10 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9757,10 +9753,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9780,19 +9776,19 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9842,7 +9838,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9854,7 +9850,7 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
@@ -9863,10 +9859,10 @@
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -9877,10 +9873,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9900,19 +9896,19 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9962,7 +9958,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9974,7 +9970,7 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -9983,10 +9979,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9997,10 +9993,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10020,22 +10016,22 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -10084,7 +10080,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10096,7 +10092,7 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
@@ -10105,10 +10101,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10119,10 +10115,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10133,7 +10129,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10145,13 +10141,13 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10202,31 +10198,31 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10237,14 +10233,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10263,16 +10259,16 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10322,7 +10318,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10334,7 +10330,7 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10346,7 +10342,7 @@
         <v>41</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10357,14 +10353,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10377,25 +10373,25 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10444,7 +10440,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10456,7 +10452,7 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
@@ -10468,7 +10464,7 @@
         <v>41</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10479,10 +10475,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10490,34 +10486,34 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K71" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10542,11 +10538,11 @@
         <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10564,34 +10560,34 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>41</v>
@@ -10599,10 +10595,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10613,7 +10609,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -10625,13 +10621,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10682,31 +10678,31 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10717,14 +10713,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10743,16 +10739,16 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10790,19 +10786,19 @@
         <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC73" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC73" t="s" s="2">
+      <c r="AD73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10814,7 +10810,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10826,7 +10822,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10837,10 +10833,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10860,22 +10856,22 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10912,17 +10908,17 @@
         <v>41</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10934,7 +10930,7 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
@@ -10943,10 +10939,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10957,13 +10953,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>41</v>
@@ -10973,31 +10969,31 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K75" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N75" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="O75" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -11022,11 +11018,11 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -11044,7 +11040,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11056,7 +11052,7 @@
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -11065,10 +11061,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11079,10 +11075,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11093,7 +11089,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -11105,13 +11101,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11162,31 +11158,31 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11197,14 +11193,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11223,16 +11219,16 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11270,19 +11266,19 @@
         <v>41</v>
       </c>
       <c r="AB77" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AC77" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC77" t="s" s="2">
+      <c r="AD77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11294,7 +11290,7 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
@@ -11306,7 +11302,7 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11317,10 +11313,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11328,41 +11324,41 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K78" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>41</v>
@@ -11404,31 +11400,31 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11439,10 +11435,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11453,28 +11449,28 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11524,31 +11520,31 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11559,10 +11555,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11570,39 +11566,39 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>41</v>
@@ -11644,31 +11640,31 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11679,10 +11675,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11693,29 +11689,29 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K81" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>41</v>
@@ -11725,7 +11721,7 @@
         <v>41</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>41</v>
@@ -11764,31 +11760,31 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AG81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -11799,10 +11795,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11813,31 +11809,31 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J82" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K82" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -11886,31 +11882,31 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
@@ -11921,10 +11917,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11935,31 +11931,31 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J83" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K83" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -12008,31 +12004,31 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
@@ -12043,10 +12039,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12057,31 +12053,31 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J84" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="K84" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="N84" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="O84" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>41</v>
@@ -12130,45 +12126,45 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP84" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12179,7 +12175,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12191,19 +12187,19 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N85" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="O85" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12228,55 +12224,55 @@
         <v>41</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y85" t="s" s="2">
+      <c r="Z85" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Z85" t="s" s="2">
+      <c r="AA85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI85" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AA85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI85" t="s" s="2">
+      <c r="AJ85" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>41</v>
@@ -12287,14 +12283,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12313,19 +12309,19 @@
         <v>41</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12350,14 +12346,14 @@
         <v>41</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y86" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z86" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z86" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AA86" t="s" s="2">
         <v>41</v>
       </c>
@@ -12374,7 +12370,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12386,33 +12382,33 @@
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12438,16 +12434,16 @@
         <v>42</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12496,7 +12492,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12508,7 +12504,7 @@
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>41</v>
@@ -12517,10 +12513,10 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
